--- a/data/trans_orig/P20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DD8642C-813F-405C-AB74-0F230096D8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0C0C4C-2E3B-4430-9E9C-03410EAFE044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D44DD02-F219-4F18-96B2-CE1E436B5431}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7D76372-3D32-4B03-A9EC-44176A2BD618}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="450">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>2,78%</t>
+    <t>2,86%</t>
   </si>
   <si>
     <t>5,51%</t>
@@ -107,19 +107,19 @@
     <t>97,95%</t>
   </si>
   <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>96,0%</t>
@@ -128,7 +128,7 @@
     <t>94,49%</t>
   </si>
   <si>
-    <t>97,22%</t>
+    <t>97,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>11,88%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>88,12%</t>
   </si>
   <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>92,82%</t>
   </si>
   <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,1249 +197,1189 @@
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
     <t>55/64</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>93,41%</t>
   </si>
   <si>
     <t>5,38%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>3,16%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>94,62%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>96,84%</t>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>95,23%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>89,95%</t>
   </si>
   <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>6,68%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
+    <t>5,43%</t>
+  </si>
+  <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
     <t>94,2%</t>
   </si>
   <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>93,32%</t>
   </si>
   <si>
     <t>93,79%</t>
@@ -1448,13 +1388,7 @@
     <t>92,94%</t>
   </si>
   <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>94,57%</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73005F06-F633-4D6E-A22A-0A836FDBE0C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBC2CB0-A6B5-4DE7-92FF-2F3CCAE776AE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2920,10 +2854,10 @@
         <v>135426</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>127</v>
@@ -2956,7 +2890,7 @@
         <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2905,13 @@
         <v>3140173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="H23" s="7">
         <v>3055</v>
@@ -2986,13 +2920,13 @@
         <v>3129857</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6132</v>
@@ -3001,13 +2935,13 @@
         <v>6270029</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +2997,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +3019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1798DD-69B8-4A50-8CD9-95BB1E4B6A92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC686029-B8F9-4154-B6DE-52C1E8C6F130}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3102,7 +3036,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3209,13 +3143,13 @@
         <v>14809</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -3224,13 +3158,13 @@
         <v>35207</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -3239,13 +3173,13 @@
         <v>50016</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3194,13 @@
         <v>437290</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>387</v>
@@ -3275,13 +3209,13 @@
         <v>395023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>817</v>
@@ -3290,13 +3224,13 @@
         <v>832313</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3298,13 @@
         <v>30673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>82</v>
@@ -3379,13 +3313,13 @@
         <v>87029</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>112</v>
@@ -3394,13 +3328,13 @@
         <v>117702</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,10 +3349,10 @@
         <v>656414</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>171</v>
@@ -3522,10 +3456,10 @@
         <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -3534,13 +3468,13 @@
         <v>56833</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -3549,13 +3483,13 @@
         <v>94036</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,7 +3510,7 @@
         <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>615</v>
@@ -3585,13 +3519,13 @@
         <v>654017</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>1233</v>
@@ -3600,10 +3534,10 @@
         <v>1298676</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>193</v>
@@ -3707,10 +3641,10 @@
         <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3659,13 @@
         <v>581664</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>496</v>
@@ -3740,13 +3674,13 @@
         <v>565315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1013</v>
@@ -3755,13 +3689,13 @@
         <v>1146978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3763,13 @@
         <v>27680</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -3844,13 +3778,13 @@
         <v>30396</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -3859,13 +3793,13 @@
         <v>58076</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3814,13 @@
         <v>401749</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>377</v>
@@ -3895,7 +3829,7 @@
         <v>417404</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>223</v>
@@ -4017,10 +3951,10 @@
         <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +3969,13 @@
         <v>494040</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>620</v>
@@ -4050,13 +3984,13 @@
         <v>665092</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>1066</v>
@@ -4065,13 +3999,13 @@
         <v>1159132</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4073,13 @@
         <v>208914</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>314</v>
@@ -4154,13 +4088,13 @@
         <v>338233</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>507</v>
@@ -4169,13 +4103,13 @@
         <v>547147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4124,13 @@
         <v>3215817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>2984</v>
@@ -4205,13 +4139,13 @@
         <v>3220076</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>5999</v>
@@ -4220,13 +4154,13 @@
         <v>6435893</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4216,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE7D668-9A47-45A9-AAAF-24C7CE099F7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D12C92-692C-4071-AAAD-66880C442F24}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4321,7 +4255,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4428,13 +4362,13 @@
         <v>12338</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -4443,13 +4377,13 @@
         <v>33921</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -4458,13 +4392,13 @@
         <v>46259</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4413,13 @@
         <v>407125</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>371</v>
@@ -4494,13 +4428,13 @@
         <v>361834</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>752</v>
@@ -4509,13 +4443,13 @@
         <v>768959</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4517,13 @@
         <v>13294</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
@@ -4598,13 +4532,13 @@
         <v>61671</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -4613,13 +4547,13 @@
         <v>74965</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4568,13 @@
         <v>577202</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -4649,13 +4583,13 @@
         <v>501873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
@@ -4664,13 +4598,13 @@
         <v>1079075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4672,13 @@
         <v>23221</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>132</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4753,13 +4687,13 @@
         <v>51147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>293</v>
+        <v>150</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4768,13 +4702,13 @@
         <v>74368</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>296</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4723,13 @@
         <v>645876</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>299</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H11" s="7">
         <v>617</v>
@@ -4804,13 +4738,13 @@
         <v>610239</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>159</v>
       </c>
       <c r="M11" s="7">
         <v>1234</v>
@@ -4819,13 +4753,13 @@
         <v>1256115</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4827,13 @@
         <v>22412</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>307</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>308</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4908,13 +4842,13 @@
         <v>31565</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4923,13 +4857,13 @@
         <v>53977</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4878,13 @@
         <v>623636</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4959,28 +4893,28 @@
         <v>617512</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>1135</v>
       </c>
       <c r="N14" s="7">
-        <v>1241148</v>
+        <v>1241149</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,7 +4956,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5048,13 +4982,13 @@
         <v>33788</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -5063,13 +4997,13 @@
         <v>25241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>323</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5081,10 +5015,10 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5033,13 @@
         <v>444130</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H17" s="7">
         <v>410</v>
@@ -5114,13 +5048,13 @@
         <v>471608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>804</v>
@@ -5132,10 +5066,10 @@
         <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5137,13 @@
         <v>58428</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>336</v>
+        <v>168</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -5218,13 +5152,13 @@
         <v>69794</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>117</v>
@@ -5233,13 +5167,13 @@
         <v>128222</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5188,13 @@
         <v>532900</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>346</v>
+        <v>177</v>
       </c>
       <c r="H20" s="7">
         <v>597</v>
@@ -5269,13 +5203,13 @@
         <v>708137</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M20" s="7">
         <v>1165</v>
@@ -5284,13 +5218,13 @@
         <v>1241037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5292,13 @@
         <v>163481</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>251</v>
@@ -5373,13 +5307,13 @@
         <v>273339</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7">
         <v>406</v>
@@ -5388,13 +5322,13 @@
         <v>436820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>358</v>
+        <v>109</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5343,13 @@
         <v>3230869</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>362</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
       <c r="H23" s="7">
         <v>3087</v>
@@ -5424,13 +5358,13 @@
         <v>3271203</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M23" s="7">
         <v>6163</v>
@@ -5439,13 +5373,13 @@
         <v>6502072</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>366</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,7 +5435,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +5457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA18B3F-205D-4EEA-9135-555113CE427A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D18986-3960-4AA2-A12C-6DC16521E90F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5540,7 +5474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5647,13 +5581,13 @@
         <v>1352</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -5662,13 +5596,13 @@
         <v>25406</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5677,13 +5611,13 @@
         <v>26758</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5632,13 @@
         <v>376327</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H5" s="7">
         <v>194</v>
@@ -5713,13 +5647,13 @@
         <v>329551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>305</v>
+        <v>372</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>87</v>
+        <v>373</v>
       </c>
       <c r="M5" s="7">
         <v>365</v>
@@ -5728,13 +5662,13 @@
         <v>705878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5736,13 @@
         <v>14718</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -5820,10 +5754,10 @@
         <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>387</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5832,13 +5766,13 @@
         <v>55882</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>389</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5787,13 @@
         <v>413678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="H8" s="7">
         <v>421</v>
@@ -5868,13 +5802,13 @@
         <v>457413</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>396</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>713</v>
@@ -5883,13 +5817,13 @@
         <v>871091</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>397</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5891,13 @@
         <v>21613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>390</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5972,13 +5906,13 @@
         <v>37962</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>73</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -5987,13 +5921,13 @@
         <v>59575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>393</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +5942,13 @@
         <v>535639</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>396</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="H11" s="7">
         <v>789</v>
@@ -6023,13 +5957,13 @@
         <v>545514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>411</v>
+        <v>82</v>
       </c>
       <c r="M11" s="7">
         <v>1315</v>
@@ -6038,13 +5972,13 @@
         <v>1081152</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>400</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6046,13 @@
         <v>38969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -6127,13 +6061,13 @@
         <v>31221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -6142,13 +6076,13 @@
         <v>70191</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6097,13 @@
         <v>685021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="H14" s="7">
         <v>1090</v>
@@ -6178,28 +6112,28 @@
         <v>716040</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="M14" s="7">
         <v>1718</v>
       </c>
       <c r="N14" s="7">
-        <v>1401061</v>
+        <v>1401060</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,7 +6175,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6270,10 +6204,10 @@
         <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>420</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -6282,13 +6216,13 @@
         <v>31462</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>432</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
@@ -6297,13 +6231,13 @@
         <v>81062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>434</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6252,13 @@
         <v>550557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>426</v>
       </c>
       <c r="H17" s="7">
         <v>947</v>
@@ -6333,13 +6267,13 @@
         <v>562839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>439</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1555</v>
@@ -6348,13 +6282,13 @@
         <v>1113396</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>441</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,13 +6356,13 @@
         <v>70148</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="H19" s="7">
         <v>130</v>
@@ -6437,13 +6371,13 @@
         <v>69150</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>279</v>
+        <v>185</v>
       </c>
       <c r="M19" s="7">
         <v>235</v>
@@ -6452,13 +6386,13 @@
         <v>139298</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>446</v>
+        <v>381</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,16 +6404,16 @@
         <v>923</v>
       </c>
       <c r="D20" s="7">
-        <v>627606</v>
+        <v>627607</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>1578</v>
@@ -6488,13 +6422,13 @@
         <v>957487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>452</v>
+        <v>358</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>192</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>2501</v>
@@ -6503,13 +6437,13 @@
         <v>1585094</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,7 +6455,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6577,13 +6511,13 @@
         <v>196401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>457</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="H22" s="7">
         <v>344</v>
@@ -6592,13 +6526,13 @@
         <v>236366</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>443</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="M22" s="7">
         <v>572</v>
@@ -6607,13 +6541,13 @@
         <v>432766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>461</v>
+        <v>198</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>463</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6562,13 @@
         <v>3188827</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>466</v>
+        <v>98</v>
       </c>
       <c r="H23" s="7">
         <v>5019</v>
@@ -6643,13 +6577,13 @@
         <v>3568844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>186</v>
+        <v>449</v>
       </c>
       <c r="M23" s="7">
         <v>8167</v>
@@ -6658,13 +6592,13 @@
         <v>6757672</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>469</v>
+        <v>208</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,7 +6654,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0C0C4C-2E3B-4430-9E9C-03410EAFE044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2EEB31-C55A-4055-A50F-05D82835D169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7D76372-3D32-4B03-A9EC-44176A2BD618}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A552073-692F-42F3-B9E0-46498D232DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="466">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1318 +77,1366 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>93,98%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBC2CB0-A6B5-4DE7-92FF-2F3CCAE776AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2172557-F1E3-434D-8FD6-F44E4B58D685}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2267,10 +2315,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2333,13 @@
         <v>620804</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>625</v>
@@ -2300,13 +2348,13 @@
         <v>655867</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1220</v>
@@ -2315,13 +2363,13 @@
         <v>1276671</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,7 +2425,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2389,13 +2437,13 @@
         <v>22346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -2404,13 +2452,13 @@
         <v>25856</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -2419,13 +2467,13 @@
         <v>48202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2488,13 @@
         <v>496801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>476</v>
@@ -2455,13 +2503,13 @@
         <v>489786</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>939</v>
@@ -2470,13 +2518,13 @@
         <v>986587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,7 +2580,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2544,13 +2592,13 @@
         <v>19341</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -2559,13 +2607,13 @@
         <v>24672</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -2574,13 +2622,13 @@
         <v>44013</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2643,13 @@
         <v>367369</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>372</v>
@@ -2610,13 +2658,13 @@
         <v>379314</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>743</v>
@@ -2625,13 +2673,13 @@
         <v>746683</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,7 +2735,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2699,13 +2747,13 @@
         <v>42382</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -2714,13 +2762,13 @@
         <v>62298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>106</v>
@@ -2729,13 +2777,13 @@
         <v>104681</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2798,13 @@
         <v>460084</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>599</v>
@@ -2765,13 +2813,13 @@
         <v>614544</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1078</v>
@@ -2780,13 +2828,13 @@
         <v>1074627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2902,13 @@
         <v>135426</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>242</v>
@@ -2869,13 +2917,13 @@
         <v>249341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>378</v>
@@ -2884,13 +2932,13 @@
         <v>384767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2953,13 @@
         <v>3140173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>3055</v>
@@ -2920,13 +2968,13 @@
         <v>3129857</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6132</v>
@@ -2935,13 +2983,13 @@
         <v>6270029</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,7 +3045,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3019,7 +3067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC686029-B8F9-4154-B6DE-52C1E8C6F130}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F556896B-F7B2-44D5-BFCF-C43529A1DC2B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3036,7 +3084,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3143,13 +3191,13 @@
         <v>14809</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -3158,13 +3206,13 @@
         <v>35207</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -3173,13 +3221,13 @@
         <v>50016</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3242,13 @@
         <v>437290</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>387</v>
@@ -3209,13 +3257,13 @@
         <v>395023</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>817</v>
@@ -3224,13 +3272,13 @@
         <v>832313</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3346,13 @@
         <v>30673</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>82</v>
@@ -3313,13 +3361,13 @@
         <v>87029</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>112</v>
@@ -3328,13 +3376,13 @@
         <v>117702</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3397,13 @@
         <v>656414</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>489</v>
@@ -3364,13 +3412,13 @@
         <v>523226</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1126</v>
@@ -3379,13 +3427,13 @@
         <v>1179640</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3501,13 @@
         <v>37203</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -3468,13 +3516,13 @@
         <v>56833</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -3483,13 +3531,13 @@
         <v>94036</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3552,13 @@
         <v>644660</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>615</v>
@@ -3596,7 +3644,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3751,7 +3799,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3778,13 +3826,13 @@
         <v>30396</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -3829,10 +3877,10 @@
         <v>417404</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>224</v>
@@ -3906,7 +3954,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4216,7 +4264,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4238,7 +4286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D12C92-692C-4071-AAAD-66880C442F24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F43804-11CA-470B-9EC7-F9F80DAF1EE7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4377,13 +4425,13 @@
         <v>33921</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -4392,13 +4440,13 @@
         <v>46259</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4461,13 @@
         <v>407125</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H5" s="7">
         <v>371</v>
@@ -4428,13 +4476,13 @@
         <v>361834</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>752</v>
@@ -4443,13 +4491,13 @@
         <v>768959</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4565,13 @@
         <v>13294</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
@@ -4532,13 +4580,13 @@
         <v>61671</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -4547,13 +4595,13 @@
         <v>74965</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4616,13 @@
         <v>577202</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -4583,13 +4631,13 @@
         <v>501873</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
@@ -4672,13 +4720,13 @@
         <v>23221</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4690,10 +4738,10 @@
         <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4702,13 +4750,13 @@
         <v>74368</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,13 +4771,13 @@
         <v>645876</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H11" s="7">
         <v>617</v>
@@ -4738,13 +4786,13 @@
         <v>610239</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="M11" s="7">
         <v>1234</v>
@@ -4753,13 +4801,13 @@
         <v>1256115</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,7 +4863,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4827,13 +4875,13 @@
         <v>22412</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>312</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4842,13 +4890,13 @@
         <v>31565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>308</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4857,13 +4905,13 @@
         <v>53977</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>315</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,13 +4926,13 @@
         <v>623636</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>301</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4893,28 +4941,28 @@
         <v>617512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M14" s="7">
         <v>1135</v>
       </c>
       <c r="N14" s="7">
-        <v>1241149</v>
+        <v>1241148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>26</v>
+        <v>322</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,7 +5004,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4970,7 +5018,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4982,13 +5030,13 @@
         <v>33788</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4997,13 +5045,13 @@
         <v>25241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>329</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5015,10 +5063,10 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5081,13 @@
         <v>444130</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H17" s="7">
         <v>410</v>
@@ -5048,13 +5096,13 @@
         <v>471608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>338</v>
       </c>
       <c r="M17" s="7">
         <v>804</v>
@@ -5066,10 +5114,10 @@
         <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,7 +5173,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5137,13 +5185,13 @@
         <v>58428</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>168</v>
+        <v>342</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -5152,13 +5200,13 @@
         <v>69794</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="M19" s="7">
         <v>117</v>
@@ -5167,13 +5215,13 @@
         <v>128222</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5236,13 @@
         <v>532900</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>177</v>
+        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>597</v>
@@ -5203,13 +5251,13 @@
         <v>708137</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>1165</v>
@@ -5218,13 +5266,13 @@
         <v>1241037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5340,13 @@
         <v>163481</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>357</v>
       </c>
       <c r="H22" s="7">
         <v>251</v>
@@ -5307,13 +5355,13 @@
         <v>273339</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>406</v>
@@ -5322,13 +5370,13 @@
         <v>436820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5391,13 @@
         <v>3230869</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>365</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="H23" s="7">
         <v>3087</v>
@@ -5358,13 +5406,13 @@
         <v>3271203</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="M23" s="7">
         <v>6163</v>
@@ -5373,13 +5421,13 @@
         <v>6502072</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>370</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,7 +5483,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5457,7 +5505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D18986-3960-4AA2-A12C-6DC16521E90F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87DAE8E-DACC-4682-8400-A35D9CA8860B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5474,7 +5522,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5581,13 +5629,13 @@
         <v>1352</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -5596,13 +5644,13 @@
         <v>25406</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>365</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5611,13 +5659,13 @@
         <v>26758</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>379</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,13 +5680,13 @@
         <v>376327</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="H5" s="7">
         <v>194</v>
@@ -5647,13 +5695,13 @@
         <v>329551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="M5" s="7">
         <v>365</v>
@@ -5662,13 +5710,13 @@
         <v>705878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>387</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5784,13 @@
         <v>14718</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -5754,10 +5802,10 @@
         <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>393</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5766,13 +5814,13 @@
         <v>55882</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>395</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5835,13 @@
         <v>413678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="H8" s="7">
         <v>421</v>
@@ -5805,10 +5853,10 @@
         <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>713</v>
@@ -5817,13 +5865,13 @@
         <v>871091</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5939,13 @@
         <v>21613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5906,13 +5954,13 @@
         <v>37962</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -5921,13 +5969,13 @@
         <v>59575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5990,13 @@
         <v>535639</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="H11" s="7">
         <v>789</v>
@@ -5957,13 +6005,13 @@
         <v>545514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>1315</v>
@@ -5972,13 +6020,13 @@
         <v>1081152</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,7 +6082,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6046,13 +6094,13 @@
         <v>38969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -6061,13 +6109,13 @@
         <v>31221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -6076,13 +6124,13 @@
         <v>70191</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>408</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6145,13 @@
         <v>685021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="H14" s="7">
         <v>1090</v>
@@ -6112,13 +6160,13 @@
         <v>716040</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="M14" s="7">
         <v>1718</v>
@@ -6127,13 +6175,13 @@
         <v>1401060</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>417</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,7 +6237,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6204,10 +6252,10 @@
         <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -6216,13 +6264,13 @@
         <v>31462</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>437</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
@@ -6231,13 +6279,13 @@
         <v>81062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,10 +6303,10 @@
         <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="H17" s="7">
         <v>947</v>
@@ -6267,13 +6315,13 @@
         <v>562839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>444</v>
       </c>
       <c r="M17" s="7">
         <v>1555</v>
@@ -6282,13 +6330,13 @@
         <v>1113396</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,7 +6392,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6356,13 +6404,13 @@
         <v>70148</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="H19" s="7">
         <v>130</v>
@@ -6371,13 +6419,13 @@
         <v>69150</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>448</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>235</v>
@@ -6386,13 +6434,13 @@
         <v>139298</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>434</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,13 +6455,13 @@
         <v>627607</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>1578</v>
@@ -6422,13 +6470,13 @@
         <v>957487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>358</v>
+        <v>453</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="M20" s="7">
         <v>2501</v>
@@ -6437,13 +6485,13 @@
         <v>1585094</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>438</v>
+        <v>245</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,13 +6559,13 @@
         <v>196401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>441</v>
+        <v>56</v>
       </c>
       <c r="H22" s="7">
         <v>344</v>
@@ -6526,13 +6574,13 @@
         <v>236366</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>572</v>
@@ -6541,13 +6589,13 @@
         <v>432766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>198</v>
+        <v>460</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,13 +6610,13 @@
         <v>3188827</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>446</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H23" s="7">
         <v>5019</v>
@@ -6577,13 +6625,13 @@
         <v>3568844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="M23" s="7">
         <v>8167</v>
@@ -6592,13 +6640,13 @@
         <v>6757672</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>208</v>
+        <v>465</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,7 +6702,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2EEB31-C55A-4055-A50F-05D82835D169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D9D7238-C7B1-457B-9930-69055065FC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A552073-692F-42F3-B9E0-46498D232DDF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A9A43BDE-0FD3-4B48-9937-256B3A8BD738}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="472">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,1372 +71,1390 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>96,31%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>91,92%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>94,58%</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2172557-F1E3-434D-8FD6-F44E4B58D685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2C27AB-82C1-4D75-B9ED-C0213308C25B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2315,10 +2333,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,13 +2351,13 @@
         <v>620804</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>625</v>
@@ -2348,13 +2366,13 @@
         <v>655867</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1220</v>
@@ -2363,13 +2381,13 @@
         <v>1276671</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,7 +2443,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2437,13 +2455,13 @@
         <v>22346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -2452,13 +2470,13 @@
         <v>25856</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -2467,13 +2485,13 @@
         <v>48202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2506,13 @@
         <v>496801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>476</v>
@@ -2503,13 +2521,13 @@
         <v>489786</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>939</v>
@@ -2518,13 +2536,13 @@
         <v>986587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2598,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2592,13 +2610,13 @@
         <v>19341</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -2607,13 +2625,13 @@
         <v>24672</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>45</v>
@@ -2622,13 +2640,13 @@
         <v>44013</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2661,13 @@
         <v>367369</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>372</v>
@@ -2658,13 +2676,13 @@
         <v>379314</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>743</v>
@@ -2673,13 +2691,13 @@
         <v>746683</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,7 +2753,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2747,13 +2765,13 @@
         <v>42382</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -2762,13 +2780,13 @@
         <v>62298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>106</v>
@@ -2777,13 +2795,13 @@
         <v>104681</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2816,13 @@
         <v>460084</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>599</v>
@@ -2813,13 +2831,13 @@
         <v>614544</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1078</v>
@@ -2828,13 +2846,13 @@
         <v>1074627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2920,13 @@
         <v>135426</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>242</v>
@@ -2917,13 +2935,13 @@
         <v>249341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>378</v>
@@ -2932,13 +2950,13 @@
         <v>384767</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2971,13 @@
         <v>3140173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>3055</v>
@@ -2968,13 +2986,13 @@
         <v>3129857</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>6132</v>
@@ -2983,10 +3001,10 @@
         <v>6270029</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>139</v>
@@ -3067,7 +3085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F556896B-F7B2-44D5-BFCF-C43529A1DC2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABDEF0E-B7F5-42AE-B06C-227B67BA2CE2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3379,10 +3397,10 @@
         <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3415,13 @@
         <v>656414</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>489</v>
@@ -3412,13 +3430,13 @@
         <v>523226</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1126</v>
@@ -3427,13 +3445,13 @@
         <v>1179640</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3519,13 @@
         <v>37203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -3516,13 +3534,13 @@
         <v>56833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -3531,13 +3549,13 @@
         <v>94036</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3570,13 @@
         <v>644660</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>615</v>
@@ -3567,13 +3585,13 @@
         <v>654017</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>1233</v>
@@ -3582,10 +3600,10 @@
         <v>1298676</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>193</v>
@@ -3644,7 +3662,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3689,10 +3707,10 @@
         <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3725,13 @@
         <v>581664</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>496</v>
@@ -3722,13 +3740,13 @@
         <v>565315</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>1013</v>
@@ -3737,13 +3755,13 @@
         <v>1146978</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,7 +3817,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3811,13 +3829,13 @@
         <v>27680</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -3826,13 +3844,13 @@
         <v>30396</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -3841,13 +3859,13 @@
         <v>58076</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3880,13 @@
         <v>401749</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>377</v>
@@ -3877,10 +3895,10 @@
         <v>417404</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>224</v>
@@ -3954,7 +3972,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3999,10 +4017,10 @@
         <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4035,13 @@
         <v>494040</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>620</v>
@@ -4032,13 +4050,13 @@
         <v>665092</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>1066</v>
@@ -4047,13 +4065,13 @@
         <v>1159132</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4139,13 @@
         <v>208914</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>314</v>
@@ -4136,13 +4154,13 @@
         <v>338233</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>507</v>
@@ -4151,13 +4169,13 @@
         <v>547147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4190,13 @@
         <v>3215817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H23" s="7">
         <v>2984</v>
@@ -4187,13 +4205,13 @@
         <v>3220076</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M23" s="7">
         <v>5999</v>
@@ -4202,13 +4220,13 @@
         <v>6435893</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F43804-11CA-470B-9EC7-F9F80DAF1EE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A45172-333D-4270-8D51-4EEA4840C7C7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4303,7 +4321,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4410,13 +4428,13 @@
         <v>12338</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -4425,13 +4443,13 @@
         <v>33921</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -4443,10 +4461,10 @@
         <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4479,13 @@
         <v>407125</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H5" s="7">
         <v>371</v>
@@ -4476,13 +4494,13 @@
         <v>361834</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
         <v>752</v>
@@ -4494,10 +4512,10 @@
         <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>276</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4583,13 @@
         <v>13294</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
@@ -4580,13 +4598,13 @@
         <v>61671</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -4595,13 +4613,13 @@
         <v>74965</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4634,13 @@
         <v>577202</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -4631,13 +4649,13 @@
         <v>501873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
@@ -4646,13 +4664,13 @@
         <v>1079075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4738,13 @@
         <v>23221</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>74</v>
+        <v>289</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4735,13 +4753,13 @@
         <v>51147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4750,13 +4768,13 @@
         <v>74368</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4789,13 @@
         <v>645876</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H11" s="7">
         <v>617</v>
@@ -4786,13 +4804,13 @@
         <v>610239</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M11" s="7">
         <v>1234</v>
@@ -4801,13 +4819,13 @@
         <v>1256115</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,7 +4881,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4875,13 +4893,13 @@
         <v>22412</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4890,13 +4908,13 @@
         <v>31565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>309</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4905,13 +4923,13 @@
         <v>53977</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4944,13 @@
         <v>623636</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4941,13 +4959,13 @@
         <v>617512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M14" s="7">
         <v>1135</v>
@@ -4956,13 +4974,13 @@
         <v>1241148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>322</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,7 +5036,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5030,13 +5048,13 @@
         <v>33788</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -5045,13 +5063,13 @@
         <v>25241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5063,10 +5081,10 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5099,13 @@
         <v>444130</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H17" s="7">
         <v>410</v>
@@ -5096,13 +5114,13 @@
         <v>471608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
         <v>804</v>
@@ -5114,10 +5132,10 @@
         <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,7 +5191,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5185,13 +5203,13 @@
         <v>58428</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -5200,13 +5218,13 @@
         <v>69794</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>182</v>
+        <v>339</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
         <v>117</v>
@@ -5215,13 +5233,13 @@
         <v>128222</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5254,13 @@
         <v>532900</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>597</v>
@@ -5251,13 +5269,13 @@
         <v>708137</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>191</v>
+        <v>349</v>
       </c>
       <c r="M20" s="7">
         <v>1165</v>
@@ -5266,13 +5284,13 @@
         <v>1241037</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>261</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5358,13 @@
         <v>163481</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>251</v>
@@ -5355,13 +5373,13 @@
         <v>273339</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M22" s="7">
         <v>406</v>
@@ -5370,13 +5388,13 @@
         <v>436820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5409,13 @@
         <v>3230869</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>366</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7">
         <v>3087</v>
@@ -5406,13 +5424,13 @@
         <v>3271203</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M23" s="7">
         <v>6163</v>
@@ -5421,13 +5439,13 @@
         <v>6502072</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,7 +5523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87DAE8E-DACC-4682-8400-A35D9CA8860B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DA819-4DEE-44EA-9B99-F86CCE92F33E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5522,7 +5540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5629,13 +5647,13 @@
         <v>1352</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -5644,13 +5662,13 @@
         <v>25406</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -5659,13 +5677,13 @@
         <v>26758</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5698,13 @@
         <v>376327</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H5" s="7">
         <v>194</v>
@@ -5695,13 +5713,13 @@
         <v>329551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="M5" s="7">
         <v>365</v>
@@ -5710,13 +5728,13 @@
         <v>705878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5802,13 @@
         <v>14718</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -5802,10 +5820,10 @@
         <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -5814,13 +5832,13 @@
         <v>55882</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5853,13 @@
         <v>413678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H8" s="7">
         <v>421</v>
@@ -5850,13 +5868,13 @@
         <v>457413</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M8" s="7">
         <v>713</v>
@@ -5865,13 +5883,13 @@
         <v>871091</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5957,13 @@
         <v>21613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -5954,13 +5972,13 @@
         <v>37962</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>403</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -5969,13 +5987,13 @@
         <v>59575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>410</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>92</v>
+        <v>405</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +6008,13 @@
         <v>535639</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H11" s="7">
         <v>789</v>
@@ -6005,13 +6023,13 @@
         <v>545514</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>411</v>
       </c>
       <c r="M11" s="7">
         <v>1315</v>
@@ -6020,13 +6038,13 @@
         <v>1081152</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>416</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>102</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,7 +6100,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6094,13 +6112,13 @@
         <v>38969</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -6109,13 +6127,13 @@
         <v>31221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>423</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -6124,13 +6142,13 @@
         <v>70191</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6163,13 @@
         <v>685021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H14" s="7">
         <v>1090</v>
@@ -6160,28 +6178,28 @@
         <v>716040</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M14" s="7">
         <v>1718</v>
       </c>
       <c r="N14" s="7">
-        <v>1401060</v>
+        <v>1401061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>427</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,7 +6241,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6237,7 +6255,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6252,10 +6270,10 @@
         <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>434</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -6264,13 +6282,13 @@
         <v>31462</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
@@ -6279,13 +6297,13 @@
         <v>81062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>434</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6318,13 @@
         <v>550557</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>441</v>
+        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>947</v>
@@ -6315,13 +6333,13 @@
         <v>562839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="M17" s="7">
         <v>1555</v>
@@ -6330,13 +6348,13 @@
         <v>1113396</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,7 +6410,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6404,13 +6422,13 @@
         <v>70148</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H19" s="7">
         <v>130</v>
@@ -6419,13 +6437,13 @@
         <v>69150</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>235</v>
@@ -6434,13 +6452,13 @@
         <v>139298</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,16 +6470,16 @@
         <v>923</v>
       </c>
       <c r="D20" s="7">
-        <v>627607</v>
+        <v>627606</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>1578</v>
@@ -6470,13 +6488,13 @@
         <v>957487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>454</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>2501</v>
@@ -6485,10 +6503,10 @@
         <v>1585094</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>245</v>
+        <v>454</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>455</v>
@@ -6503,7 +6521,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6562,10 +6580,10 @@
         <v>456</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>85</v>
+        <v>457</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>458</v>
       </c>
       <c r="H22" s="7">
         <v>344</v>
@@ -6574,13 +6592,13 @@
         <v>236366</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>458</v>
+        <v>178</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M22" s="7">
         <v>572</v>
@@ -6589,13 +6607,13 @@
         <v>432766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6610,13 +6628,13 @@
         <v>3188827</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>63</v>
+        <v>465</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>94</v>
+        <v>466</v>
       </c>
       <c r="H23" s="7">
         <v>5019</v>
@@ -6625,13 +6643,13 @@
         <v>3568844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>464</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>8167</v>
@@ -6640,13 +6658,13 @@
         <v>6757672</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P20-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P20-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D9D7238-C7B1-457B-9930-69055065FC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84DF0F80-715F-4728-BF05-1B83384A28AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A9A43BDE-0FD3-4B48-9937-256B3A8BD738}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3F5E79D7-7411-4110-9AEE-9DC13BDE8F9E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="549">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>3,18%</t>
@@ -191,7 +191,7 @@
     <t>94,19%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,8%</t>
@@ -248,7 +248,7 @@
     <t>96,98%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>4,3%</t>
@@ -305,7 +305,7 @@
     <t>96,44%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>5,0%</t>
@@ -362,495 +362,612 @@
     <t>95,81%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
     <t>95,85%</t>
   </si>
   <si>
@@ -1046,415 +1163,529 @@
     <t>95,63%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>93,11%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>95,82%</t>
   </si>
   <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
 </sst>
 </file>
@@ -1866,8 +2097,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2C27AB-82C1-4D75-B9ED-C0213308C25B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C557C4-6EBB-4DC9-8277-EA6BE53EB26B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2759,10 +2990,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D19" s="7">
-        <v>42382</v>
+        <v>22870</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2774,10 +3005,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>62298</v>
+        <v>29399</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2789,10 +3020,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="N19" s="7">
-        <v>104681</v>
+        <v>52269</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2810,10 +3041,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>479</v>
+        <v>279</v>
       </c>
       <c r="D20" s="7">
-        <v>460084</v>
+        <v>269713</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2825,10 +3056,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>599</v>
+        <v>339</v>
       </c>
       <c r="I20" s="7">
-        <v>614544</v>
+        <v>313535</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2840,10 +3071,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1078</v>
+        <v>618</v>
       </c>
       <c r="N20" s="7">
-        <v>1074627</v>
+        <v>583248</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2861,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2876,10 +3107,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2891,10 +3122,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2908,55 +3139,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="D22" s="7">
-        <v>135426</v>
+        <v>19512</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="I22" s="7">
-        <v>249341</v>
+        <v>32900</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>378</v>
+        <v>50</v>
       </c>
       <c r="N22" s="7">
-        <v>384767</v>
+        <v>52412</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,49 +3196,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3077</v>
+        <v>200</v>
       </c>
       <c r="D23" s="7">
-        <v>3140173</v>
+        <v>190371</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>3055</v>
+        <v>260</v>
       </c>
       <c r="I23" s="7">
-        <v>3129857</v>
+        <v>301008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>6132</v>
+        <v>460</v>
       </c>
       <c r="N23" s="7">
-        <v>6270029</v>
+        <v>491379</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,63 +3247,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>136</v>
+      </c>
+      <c r="D25" s="7">
+        <v>135426</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="7">
+        <v>242</v>
+      </c>
+      <c r="I25" s="7">
+        <v>249341</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>378</v>
+      </c>
+      <c r="N25" s="7">
+        <v>384767</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3077</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3140173</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3055</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3129856</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6132</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6270029</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275599</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654796</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3085,8 +3472,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABDEF0E-B7F5-42AE-B06C-227B67BA2CE2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF287852-EE4A-4F82-82CA-D0EDB43FC566}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3102,7 +3489,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3209,13 +3596,13 @@
         <v>14809</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -3224,13 +3611,13 @@
         <v>35207</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -3239,13 +3626,13 @@
         <v>50016</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3647,13 @@
         <v>437290</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>387</v>
@@ -3275,13 +3662,13 @@
         <v>395023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>817</v>
@@ -3290,13 +3677,13 @@
         <v>832313</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3751,13 @@
         <v>30673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>82</v>
@@ -3379,13 +3766,13 @@
         <v>87029</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>112</v>
@@ -3394,13 +3781,13 @@
         <v>117702</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3802,13 @@
         <v>656414</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>489</v>
@@ -3430,13 +3817,13 @@
         <v>523226</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>1126</v>
@@ -3445,13 +3832,13 @@
         <v>1179640</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3906,13 @@
         <v>37203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -3534,13 +3921,13 @@
         <v>56833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -3549,13 +3936,13 @@
         <v>94036</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3957,13 @@
         <v>644660</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
         <v>615</v>
@@ -3585,13 +3972,13 @@
         <v>654017</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>1233</v>
@@ -3600,13 +3987,13 @@
         <v>1298676</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +4061,13 @@
         <v>32953</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3689,13 +4076,13 @@
         <v>50884</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -3704,13 +4091,13 @@
         <v>83838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +4112,13 @@
         <v>581664</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>496</v>
@@ -3740,13 +4127,13 @@
         <v>565315</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>1013</v>
@@ -3755,13 +4142,13 @@
         <v>1146978</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +4216,13 @@
         <v>27680</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -3844,13 +4231,13 @@
         <v>30396</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -3859,13 +4246,13 @@
         <v>58076</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +4267,13 @@
         <v>401749</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>377</v>
@@ -3895,13 +4282,13 @@
         <v>417404</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>744</v>
@@ -3910,13 +4297,13 @@
         <v>819153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,49 +4365,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>65597</v>
+        <v>29420</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="I19" s="7">
-        <v>77883</v>
+        <v>33575</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="N19" s="7">
-        <v>143480</v>
+        <v>62995</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,49 +4416,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>446</v>
+        <v>255</v>
       </c>
       <c r="D20" s="7">
-        <v>494040</v>
+        <v>280366</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
-        <v>620</v>
+        <v>310</v>
       </c>
       <c r="I20" s="7">
-        <v>665092</v>
+        <v>320421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
-        <v>1066</v>
+        <v>565</v>
       </c>
       <c r="N20" s="7">
-        <v>1159132</v>
+        <v>600787</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,10 +4467,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4095,10 +4482,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4110,10 +4497,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4127,55 +4514,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>208914</v>
+        <v>36177</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="I22" s="7">
-        <v>338233</v>
+        <v>44308</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
-        <v>507</v>
+        <v>71</v>
       </c>
       <c r="N22" s="7">
-        <v>547147</v>
+        <v>80485</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,49 +4571,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3015</v>
+        <v>191</v>
       </c>
       <c r="D23" s="7">
-        <v>3215817</v>
+        <v>213674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
-        <v>2984</v>
+        <v>310</v>
       </c>
       <c r="I23" s="7">
-        <v>3220076</v>
+        <v>344671</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
-        <v>5999</v>
+        <v>501</v>
       </c>
       <c r="N23" s="7">
-        <v>6435893</v>
+        <v>558345</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,63 +4622,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>193</v>
+      </c>
+      <c r="D25" s="7">
+        <v>208914</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25" s="7">
+        <v>314</v>
+      </c>
+      <c r="I25" s="7">
+        <v>338233</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M25" s="7">
+        <v>507</v>
+      </c>
+      <c r="N25" s="7">
+        <v>547147</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3015</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3215817</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2984</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3220076</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5999</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6435893</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3208</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3424731</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6506</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6983040</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4304,8 +4847,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A45172-333D-4270-8D51-4EEA4840C7C7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA09C93-C0AE-4180-BE24-C061C4A86D27}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4321,7 +4864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4428,13 +4971,13 @@
         <v>12338</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -4443,13 +4986,13 @@
         <v>33921</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -4458,13 +5001,13 @@
         <v>46259</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +5022,13 @@
         <v>407125</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>371</v>
@@ -4494,13 +5037,13 @@
         <v>361834</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="M5" s="7">
         <v>752</v>
@@ -4509,13 +5052,13 @@
         <v>768959</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +5126,13 @@
         <v>13294</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>61</v>
@@ -4598,13 +5141,13 @@
         <v>61671</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -4613,13 +5156,13 @@
         <v>74965</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +5177,13 @@
         <v>577202</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>518</v>
@@ -4649,13 +5192,13 @@
         <v>501873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
@@ -4664,13 +5207,13 @@
         <v>1079075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +5281,13 @@
         <v>23221</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
         <v>48</v>
@@ -4753,13 +5296,13 @@
         <v>51147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4768,13 +5311,13 @@
         <v>74368</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +5332,13 @@
         <v>645876</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>617</v>
@@ -4804,13 +5347,13 @@
         <v>610239</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>1234</v>
@@ -4819,13 +5362,13 @@
         <v>1256115</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +5436,13 @@
         <v>22412</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4908,13 +5451,13 @@
         <v>31565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4923,13 +5466,13 @@
         <v>53977</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +5487,13 @@
         <v>623636</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4959,13 +5502,13 @@
         <v>617512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>1135</v>
@@ -4974,13 +5517,13 @@
         <v>1241148</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5591,13 @@
         <v>33788</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -5063,13 +5606,13 @@
         <v>25241</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -5081,10 +5624,10 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5642,13 @@
         <v>444130</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="H17" s="7">
         <v>410</v>
@@ -5114,13 +5657,13 @@
         <v>471608</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="M17" s="7">
         <v>804</v>
@@ -5132,10 +5675,10 @@
         <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,49 +5740,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7">
-        <v>58428</v>
+        <v>36641</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="H19" s="7">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7">
-        <v>69794</v>
+        <v>29229</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="M19" s="7">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="N19" s="7">
-        <v>128222</v>
+        <v>65870</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,49 +5791,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>568</v>
+        <v>291</v>
       </c>
       <c r="D20" s="7">
-        <v>532900</v>
+        <v>297689</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="H20" s="7">
-        <v>597</v>
+        <v>327</v>
       </c>
       <c r="I20" s="7">
-        <v>708137</v>
+        <v>348533</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="M20" s="7">
-        <v>1165</v>
+        <v>618</v>
       </c>
       <c r="N20" s="7">
-        <v>1241037</v>
+        <v>646222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,10 +5842,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5314,10 +5857,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5329,10 +5872,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5346,55 +5889,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="D22" s="7">
-        <v>163481</v>
+        <v>21787</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>263</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
+        <v>31</v>
+      </c>
+      <c r="I22" s="7">
+        <v>40565</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M22" s="7">
+        <v>56</v>
+      </c>
+      <c r="N22" s="7">
+        <v>62352</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="I22" s="7">
-        <v>273339</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="M22" s="7">
-        <v>406</v>
-      </c>
-      <c r="N22" s="7">
-        <v>436820</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>358</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,49 +5946,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3076</v>
+        <v>277</v>
       </c>
       <c r="D23" s="7">
-        <v>3230869</v>
+        <v>235211</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="7">
         <v>270</v>
       </c>
-      <c r="H23" s="7">
-        <v>3087</v>
-      </c>
       <c r="I23" s="7">
-        <v>3271203</v>
+        <v>359604</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="M23" s="7">
-        <v>6163</v>
+        <v>547</v>
       </c>
       <c r="N23" s="7">
-        <v>6502072</v>
+        <v>594815</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>366</v>
+        <v>260</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,63 +5997,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>155</v>
+      </c>
+      <c r="D25" s="7">
+        <v>163481</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H25" s="7">
+        <v>251</v>
+      </c>
+      <c r="I25" s="7">
+        <v>273339</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M25" s="7">
+        <v>406</v>
+      </c>
+      <c r="N25" s="7">
+        <v>436820</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3076</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3230869</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3087</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3271203</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6163</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6502072</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5523,8 +6222,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DA819-4DEE-44EA-9B99-F86CCE92F33E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2132FC-8477-43B4-94DB-70D0C0743588}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5540,7 +6239,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5644,46 +6343,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1352</v>
+        <v>1454</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>25406</v>
+        <v>22114</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>297</v>
+        <v>426</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>26758</v>
+        <v>23568</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,46 +6394,46 @@
         <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>376327</v>
+        <v>398533</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="H5" s="7">
         <v>194</v>
       </c>
       <c r="I5" s="7">
-        <v>329551</v>
+        <v>291086</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>305</v>
+        <v>435</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>87</v>
+        <v>437</v>
       </c>
       <c r="M5" s="7">
         <v>365</v>
       </c>
       <c r="N5" s="7">
-        <v>705878</v>
+        <v>689619</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,7 +6445,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5761,7 +6460,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5776,7 +6475,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5799,46 +6498,46 @@
         <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>14718</v>
+        <v>15123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
       </c>
       <c r="I7" s="7">
-        <v>41164</v>
+        <v>37393</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>444</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
       </c>
       <c r="N7" s="7">
-        <v>55882</v>
+        <v>52515</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,46 +6549,46 @@
         <v>292</v>
       </c>
       <c r="D8" s="7">
-        <v>413678</v>
+        <v>408424</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="H8" s="7">
         <v>421</v>
       </c>
       <c r="I8" s="7">
-        <v>457413</v>
+        <v>474111</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>453</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="M8" s="7">
         <v>713</v>
       </c>
       <c r="N8" s="7">
-        <v>871091</v>
+        <v>882536</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,7 +6600,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5916,7 +6615,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5931,7 +6630,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5954,46 +6653,46 @@
         <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>21613</v>
+        <v>21347</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>461</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>37962</v>
+        <v>35763</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>59575</v>
+        <v>57110</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>465</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,46 +6704,46 @@
         <v>526</v>
       </c>
       <c r="D11" s="7">
-        <v>535639</v>
+        <v>514991</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>469</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>789</v>
       </c>
       <c r="I11" s="7">
-        <v>545514</v>
+        <v>506705</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="M11" s="7">
         <v>1315</v>
       </c>
       <c r="N11" s="7">
-        <v>1081152</v>
+        <v>1021696</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>474</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,7 +6755,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6071,7 +6770,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6086,7 +6785,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6109,46 +6808,46 @@
         <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>38969</v>
+        <v>37480</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>31221</v>
+        <v>29168</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>354</v>
+        <v>482</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
       </c>
       <c r="N13" s="7">
-        <v>70191</v>
+        <v>66648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>419</v>
+        <v>483</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,46 +6859,46 @@
         <v>628</v>
       </c>
       <c r="D14" s="7">
-        <v>685021</v>
+        <v>850306</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="H14" s="7">
         <v>1090</v>
       </c>
       <c r="I14" s="7">
-        <v>716040</v>
+        <v>683713</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>490</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>426</v>
+        <v>491</v>
       </c>
       <c r="M14" s="7">
         <v>1718</v>
       </c>
       <c r="N14" s="7">
-        <v>1401061</v>
+        <v>1534019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>427</v>
+        <v>492</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,7 +6910,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6226,7 +6925,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6241,7 +6940,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6264,46 +6963,46 @@
         <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>49600</v>
+        <v>46592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>495</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>496</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
       </c>
       <c r="I16" s="7">
-        <v>31462</v>
+        <v>29085</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
       </c>
       <c r="N16" s="7">
-        <v>81062</v>
+        <v>75677</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>435</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,46 +7014,46 @@
         <v>608</v>
       </c>
       <c r="D17" s="7">
-        <v>550557</v>
+        <v>514642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>501</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>502</v>
       </c>
       <c r="H17" s="7">
         <v>947</v>
       </c>
       <c r="I17" s="7">
-        <v>562839</v>
+        <v>516481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="M17" s="7">
         <v>1555</v>
       </c>
       <c r="N17" s="7">
-        <v>1113396</v>
+        <v>1031122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>440</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,7 +7065,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6381,7 +7080,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>594301</v>
+        <v>545566</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6396,7 +7095,7 @@
         <v>1664</v>
       </c>
       <c r="N18" s="7">
-        <v>1194458</v>
+        <v>1106799</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6416,49 +7115,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7">
-        <v>70148</v>
+        <v>35239</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>443</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="H19" s="7">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="I19" s="7">
-        <v>69150</v>
+        <v>22335</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>510</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>279</v>
+        <v>511</v>
       </c>
       <c r="M19" s="7">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="N19" s="7">
-        <v>139298</v>
+        <v>57575</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>446</v>
+        <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>447</v>
+        <v>512</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>448</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,49 +7166,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>923</v>
+        <v>516</v>
       </c>
       <c r="D20" s="7">
-        <v>627606</v>
+        <v>332926</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>451</v>
+        <v>83</v>
       </c>
       <c r="H20" s="7">
-        <v>1578</v>
+        <v>779</v>
       </c>
       <c r="I20" s="7">
-        <v>957487</v>
+        <v>586033</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>517</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>518</v>
       </c>
       <c r="M20" s="7">
-        <v>2501</v>
+        <v>1295</v>
       </c>
       <c r="N20" s="7">
-        <v>1585094</v>
+        <v>918958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>453</v>
+        <v>175</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,10 +7217,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6533,10 +7232,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6548,10 +7247,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6565,55 +7264,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="D22" s="7">
-        <v>196401</v>
+        <v>30823</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
       <c r="H22" s="7">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="I22" s="7">
-        <v>236366</v>
+        <v>40984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="M22" s="7">
-        <v>572</v>
+        <v>133</v>
       </c>
       <c r="N22" s="7">
-        <v>432766</v>
+        <v>71808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>462</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,49 +7321,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3148</v>
+        <v>407</v>
       </c>
       <c r="D23" s="7">
-        <v>3188827</v>
+        <v>251936</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
       <c r="H23" s="7">
-        <v>5019</v>
+        <v>799</v>
       </c>
       <c r="I23" s="7">
-        <v>3568844</v>
+        <v>384847</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>468</v>
+        <v>532</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>186</v>
+        <v>416</v>
       </c>
       <c r="M23" s="7">
-        <v>8167</v>
+        <v>1206</v>
       </c>
       <c r="N23" s="7">
-        <v>6757672</v>
+        <v>636782</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>469</v>
+        <v>533</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>471</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,63 +7372,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>228</v>
+      </c>
+      <c r="D25" s="7">
+        <v>188058</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="H25" s="7">
+        <v>344</v>
+      </c>
+      <c r="I25" s="7">
+        <v>216843</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" s="7">
+        <v>572</v>
+      </c>
+      <c r="N25" s="7">
+        <v>404902</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3148</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3271759</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5019</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3442974</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8167</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6714732</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5363</v>
       </c>
-      <c r="I24" s="7">
-        <v>3805210</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3659817</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8739</v>
       </c>
-      <c r="N24" s="7">
-        <v>7190438</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7119634</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
